--- a/descargas/informe.xlsx
+++ b/descargas/informe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numero_envío</t>
+          <t>Seguimiento</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -465,12 +465,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>estado_envio</t>
+          <t>Estado</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Motivo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Monto</t>
         </is>
       </c>
     </row>
@@ -483,30 +488,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NOML1300048747</t>
+          <t>NOML1300048311</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricardo </t>
+          <t>Héctor ruiz</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gral Rodríguez 3261</t>
+          <t>CALLE 119</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monte Grande </t>
+          <t>BERAZATEGUI</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,30 +525,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NOML1300048748</t>
+          <t>NOML1300048747</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carmen Vigueras </t>
+          <t xml:space="preserve">Ricardo </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sudamérica 126</t>
+          <t>Gral Rodríguez 3261</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Spegazzini </t>
+          <t xml:space="preserve">Monte Grande </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -551,30 +562,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NOML1300048749</t>
+          <t>NOML1300048748</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elena Aliaga </t>
+          <t xml:space="preserve">Carmen Vigueras </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aranguren 3611</t>
+          <t>Sudamérica 126</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CABA</t>
+          <t xml:space="preserve">Carlos Spegazzini </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -585,30 +599,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NOML1300048750</t>
+          <t>NOML1300048749</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristian </t>
+          <t xml:space="preserve">Elena Aliaga </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Avenida Piedra Buena 4205</t>
+          <t>Aranguren 3611</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Villa Lugano </t>
+          <t>CABA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -619,22 +636,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NOML1300048751</t>
+          <t>NOML1300048750</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delia </t>
+          <t xml:space="preserve">Cristian </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hubac 5563</t>
+          <t>Avenida Piedra Buena 4205</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CABA</t>
+          <t xml:space="preserve">Villa Lugano </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -643,6 +660,9 @@
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -653,30 +673,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NOML1300048752</t>
+          <t>NOML1300048751</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Teresa </t>
+          <t xml:space="preserve">Delia </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>El Chaja 1788</t>
+          <t>Hubac 5563</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">San José </t>
+          <t>CABA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>Reasignado</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Reasignado</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -687,30 +714,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NOML1300048753</t>
+          <t>NOML1300048752</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristina </t>
+          <t xml:space="preserve">Teresa </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C. 137 N 2630</t>
+          <t>El Chaja 1788</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ranelagh</t>
+          <t xml:space="preserve">San José </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -721,30 +751,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NOML1300048754</t>
+          <t>NOML1300048753</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soledad Mamaní </t>
+          <t xml:space="preserve">Cristina </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mariano Alegre 3315</t>
+          <t>C. 137 N 2630</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monte Grande </t>
+          <t>Ranelagh</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>6200</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -755,30 +788,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NOML1300048755</t>
+          <t>NOML1300048754</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Paola</t>
+          <t xml:space="preserve">Soledad Mamaní </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Moreno 1916</t>
+          <t>Mariano Alegre 3315</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CABA</t>
+          <t xml:space="preserve">Monte Grande </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -789,17 +825,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NOML1300048756</t>
+          <t>NOML1300048755</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> María Teresa</t>
+          <t>Paola</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Junín 1360</t>
+          <t>Moreno 1916</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -809,10 +845,13 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>6200</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -823,30 +862,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NOML1300048757</t>
+          <t>NOML1300048756</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claudia </t>
+          <t xml:space="preserve"> María Teresa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">PUNTO DE ENCUENTRO Ramallo y Zoreta </t>
+          <t>Junín 1360</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sarandi</t>
+          <t>CABA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -857,30 +899,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NOML1300048758</t>
+          <t>NOML1300048757</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Simón </t>
+          <t xml:space="preserve">Claudia </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Los Manzanos 433</t>
+          <t xml:space="preserve">PUNTO DE ENCUENTRO Ramallo y Zoreta </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ezeiza Tristan Suarez </t>
+          <t>Sarandi</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -891,30 +936,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NOML1300048759</t>
+          <t>NOML1300048758</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Luis Gutiérrez </t>
+          <t xml:space="preserve">Simón </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>José Barros Pasos 5500</t>
+          <t>Los Manzanos 433</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CABA</t>
+          <t xml:space="preserve">Ezeiza Tristan Suarez </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -925,17 +973,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NOML1300048760</t>
+          <t>NOML1300048759</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beatriz </t>
+          <t xml:space="preserve">Luis Gutiérrez </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Quirno 777</t>
+          <t>José Barros Pasos 5500</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -949,6 +997,9 @@
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -959,30 +1010,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NOML1300048761</t>
+          <t>NOML1300048760</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nemia Adrian </t>
+          <t xml:space="preserve">Beatriz </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricardo Palma </t>
+          <t>Quirno 777</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lomas de Zamora </t>
+          <t>CABA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>6200</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -993,30 +1047,33 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NOML1300048762</t>
+          <t>NOML1300048761</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Viviana </t>
+          <t xml:space="preserve">Nemia Adrian </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>La pampa 660</t>
+          <t xml:space="preserve">Ricardo Palma </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">San José Adrogué </t>
+          <t xml:space="preserve">Lomas de Zamora </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1027,30 +1084,33 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NOML1300048763</t>
+          <t>NOML1300048762</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eduardo </t>
+          <t xml:space="preserve">Viviana </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Almirante Brown 1160</t>
+          <t>La pampa 660</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guernica </t>
+          <t xml:space="preserve">San José Adrogué </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>6200</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1061,30 +1121,33 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NOML1300048764</t>
+          <t>NOML1300048763</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Marcelo amaya</t>
+          <t xml:space="preserve">Eduardo </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">12 de febrero 900 </t>
+          <t>Almirante Brown 1160</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CABA</t>
+          <t xml:space="preserve">Guernica </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>6900</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1095,22 +1158,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NOML1300048765</t>
+          <t>NOML1300048764</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>:kike</t>
+          <t>Marcelo amaya</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baradero 447 </t>
+          <t xml:space="preserve">12 de febrero 900 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lomas de zamora</t>
+          <t>CABA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1119,6 +1182,9 @@
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1129,30 +1195,33 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NOML1300048766</t>
+          <t>NOML1300048765</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lucia</t>
+          <t>:kike</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Zelada 5982</t>
+          <t xml:space="preserve">Baradero 447 </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CABA</t>
+          <t>Lomas de zamora</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>7200</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1163,30 +1232,33 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NOML1300048767</t>
+          <t>NOML1300048766</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Frankii</t>
+          <t>Lucia</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emilio cardeza 42 </t>
+          <t>Zelada 5982</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Monte grande 9 de abril</t>
+          <t>CABA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,30 +1269,33 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NOML1300048768</t>
+          <t>NOML1300048767</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Blanca</t>
+          <t>Frankii</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Monte 5985</t>
+          <t xml:space="preserve">Emilio cardeza 42 </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CABA</t>
+          <t>Monte grande 9 de abril</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1231,30 +1306,33 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NOML1300048769</t>
+          <t>NOML1300048768</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>José galvan</t>
+          <t>Blanca</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ingenieros 1618</t>
+          <t>Monte 5985</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>De fcio varela</t>
+          <t>CABA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1265,30 +1343,33 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NOML1300048770</t>
+          <t>NOML1300048769</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">:Raúl </t>
+          <t>José galvan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francisco de la cruz 1894 </t>
+          <t>ingenieros 1618</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CABA</t>
+          <t>De fcio varela</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>7200</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1299,22 +1380,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NOML1300048771</t>
+          <t>NOML1300048770</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Yvael</t>
+          <t xml:space="preserve">:Raúl </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Los pinos 1630</t>
+          <t xml:space="preserve">Francisco de la cruz 1894 </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Monte grande,</t>
+          <t>CABA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1323,6 +1404,9 @@
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1333,30 +1417,33 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NOML1300048772</t>
+          <t>NOML1300048771</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>:Ricardo</t>
+          <t>Yvael</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> salta 650</t>
+          <t>Los pinos 1630</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9 de abril</t>
+          <t>Monte grande,</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1367,30 +1454,33 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NOML1300048773</t>
+          <t>NOML1300048772</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Liliana</t>
+          <t>:Ricardo</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Guardia Nacional 1308</t>
+          <t xml:space="preserve"> salta 650</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CABA</t>
+          <t>9 de abril</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1401,30 +1491,33 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NOML1300048774</t>
+          <t>NOML1300048773</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Marcelo</t>
+          <t>Liliana</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>General Roca 1310</t>
+          <t>Guardia Nacional 1308</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Don bosco</t>
+          <t>CABA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1435,30 +1528,33 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NOML1300048775</t>
+          <t>NOML1300048774</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Marcelo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>:Garibaldi 1074</t>
+          <t>General Roca 1310</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>claypole</t>
+          <t>Don bosco</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1469,30 +1565,33 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NOML1300048776</t>
+          <t>NOML1300048775</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>saavedra 236</t>
+          <t>:Garibaldi 1074</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lomas de zamora</t>
+          <t>claypole</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>7200</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1503,30 +1602,33 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NOML1300048777</t>
+          <t>NOML1300048776</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Humberto 11281</t>
+          <t>saavedra 236</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CABA</t>
+          <t>Lomas de zamora</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1537,30 +1639,33 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NOML1300048778</t>
+          <t>NOML1300048777</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Industria 395</t>
+          <t>Humberto 11281</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>glew</t>
+          <t>CABA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>7200</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1571,30 +1676,33 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NOML1300048779</t>
+          <t>NOML1300048778</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ana Maria</t>
+          <t>Salvador</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>santa cruz 2306</t>
+          <t>Industria 395</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Florencio Varela</t>
+          <t>glew</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>7200</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1605,30 +1713,33 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NOML1300048780</t>
+          <t>NOML1300048779</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Roberto lopez</t>
+          <t>Ana Maria</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Concordia 1223</t>
+          <t>santa cruz 2306</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CABA</t>
+          <t>Florencio Varela</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1639,17 +1750,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NOML1300048781</t>
+          <t>NOML1300048780</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antonio vazquez </t>
+          <t>Roberto lopez</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>el Salvador 3910</t>
+          <t>Concordia 1223</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1659,10 +1770,13 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>6900</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,17 +1787,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NOML1300048782</t>
+          <t>NOML1300048781</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pablo gonzalez</t>
+          <t xml:space="preserve">Antonio vazquez </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Av boyaca 1039</t>
+          <t>el Salvador 3910</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1693,10 +1807,13 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1707,17 +1824,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NOML1300048783</t>
+          <t>NOML1300048782</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">blason thierry </t>
+          <t>Pablo gonzalez</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Delgado 1233</t>
+          <t>Av boyaca 1039</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1727,10 +1844,13 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1741,30 +1861,33 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NOML1300048784</t>
+          <t>NOML1300048783</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Stella Maris Aranguiriz</t>
+          <t xml:space="preserve">blason thierry </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">andrade 98 </t>
+          <t>Delgado 1233</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>burzaco</t>
+          <t>CABA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1775,30 +1898,33 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NOML1300048785</t>
+          <t>NOML1300048784</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>René Zalazar</t>
+          <t>Stella Maris Aranguiriz</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Av Pre Quintana 127</t>
+          <t xml:space="preserve">andrade 98 </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CABA</t>
+          <t>burzaco</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1809,30 +1935,33 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NOML1300048786</t>
+          <t>NOML1300048785</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Claudia  Goyenechea</t>
+          <t>René Zalazar</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Martiniano Leguizamón 4228</t>
+          <t>Av Pre Quintana 127</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>caba</t>
+          <t>CABA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1843,17 +1972,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NOML1300048787</t>
+          <t>NOML1300048786</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jose Quispe</t>
+          <t>Claudia  Goyenechea</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av Mariano Acosta y Av Riestra </t>
+          <t>Martiniano Leguizamón 4228</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1863,10 +1992,13 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1877,22 +2009,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NOML1300048788</t>
+          <t>NOML1300048787</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Miguel benavides</t>
+          <t>Jose Quispe</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Quesada 2252</t>
+          <t xml:space="preserve">Av Mariano Acosta y Av Riestra </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ingeniero budge</t>
+          <t>caba</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1901,6 +2033,9 @@
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1911,30 +2046,33 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NOML1300048789</t>
+          <t>NOML1300048788</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Karen Britos</t>
+          <t>Miguel benavides</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Evaristo carriego 1835</t>
+          <t>Quesada 2252</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>LOMAS DE ZAMORA</t>
+          <t>Ingeniero budge</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1945,30 +2083,33 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NOML1300048790</t>
+          <t>NOML1300048789</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sergio montenegro</t>
+          <t>Karen Britos</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rucci 2803</t>
+          <t>Evaristo carriego 1835</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lanús</t>
+          <t>LOMAS DE ZAMORA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>6900</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1979,30 +2120,33 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NOML1300048791</t>
+          <t>NOML1300048790</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>María laura velazquez</t>
+          <t>Sergio montenegro</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Edilicio 45 pbi</t>
+          <t>Rucci 2803</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Villa celina</t>
+          <t>Lanús</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>6900</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2013,22 +2157,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NOML1300048792</t>
+          <t>NOML1300048791</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Luis Deza</t>
+          <t>María laura velazquez</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Velez Sarsfield 636</t>
+          <t>Edilicio 45 pbi</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LANUS</t>
+          <t>Villa celina</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2037,6 +2181,9 @@
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>8500</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2047,30 +2194,33 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NOML1300048793</t>
+          <t>NOML1300048792</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Anais zuñiga</t>
+          <t>Luis Deza</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rodriguez peña 468</t>
+          <t>Velez Sarsfield 636</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>San Nicolas - CABA</t>
+          <t>LANUS</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>6900</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2081,30 +2231,33 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NOML1300048794</t>
+          <t>NOML1300048793</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Silvia Gutiérrez</t>
+          <t>Anais zuñiga</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Camino gral belgrano 3089</t>
+          <t>Rodriguez peña 468</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lanus </t>
+          <t>San Nicolas - CABA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>8500</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2115,30 +2268,33 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NOML1300048795</t>
+          <t>NOML1300048794</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Martín ramirez</t>
+          <t>Silvia Gutiérrez</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Comodoro Martín rivadavia 1950</t>
+          <t>Camino gral belgrano 3089</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>9 de abril</t>
+          <t xml:space="preserve">Lanus </t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>8500</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2149,30 +2305,33 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NOML1300048796</t>
+          <t>NOML1300048795</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gustavo </t>
+          <t>Martín ramirez</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>España 920</t>
+          <t>Comodoro Martín rivadavia 1950</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Villa madero</t>
+          <t>9 de abril</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2183,22 +2342,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NOML1300048797</t>
+          <t>NOML1300048796</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Laura Rey</t>
+          <t xml:space="preserve">Gustavo </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Barilari 1826</t>
+          <t>España 920</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Villa madero</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2207,6 +2366,9 @@
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2217,30 +2379,33 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NOML1300048798</t>
+          <t>NOML1300048797</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Hernan Bedacarratz</t>
+          <t>Laura Rey</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Salcedo 2134</t>
+          <t>Barilari 1826</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>LANUS</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2251,30 +2416,33 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NOML1300048799</t>
+          <t>NOML1300048798</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Nelly duran rodas</t>
+          <t>Hernan Bedacarratz</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Alelies 35</t>
+          <t>Salcedo 2134</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ciudad evita</t>
+          <t>LANUS</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2285,22 +2453,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NOML1300048800</t>
+          <t>NOML1300048799</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mario Ruiz</t>
+          <t>Nelly duran rodas</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Osorio 2237</t>
+          <t>Alelies 35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lanús</t>
+          <t>Ciudad evita</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2309,6 +2477,9 @@
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>8500</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2319,30 +2490,33 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NOML1300048801</t>
+          <t>NOML1300048800</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">nelson gonzales </t>
+          <t>Mario Ruiz</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cervantes 2975</t>
+          <t>Osorio 2237</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">villa devoto </t>
+          <t>Lanús</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>6900</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2353,30 +2527,33 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NOML1300048802</t>
+          <t>NOML1300048801</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mónica Enrique</t>
+          <t xml:space="preserve">nelson gonzales </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Campillo 2706</t>
+          <t xml:space="preserve"> cervantes 2975</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Villa Urquiza</t>
+          <t xml:space="preserve">villa devoto </t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
+          <t>En Camino</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2387,30 +2564,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NOML1300048803</t>
+          <t>NOML1300048802</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>nora</t>
+          <t>Mónica Enrique</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>José león suarez 142 local 3</t>
+          <t>Campillo 2706</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>liniers</t>
+          <t>Villa Urquiza</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lista Para Retirar</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>No Entregado</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Domicilio no visitado</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>8500</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2421,30 +2605,70 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>NOML1300048803</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>nora</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>José león suarez 142 local 3</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>liniers</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>En Camino</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>NOML1300048804</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Heberth valdez</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1 de mayo</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Villa madero</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Lista Para Retirar</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>14900</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/descargas/informe.xlsx
+++ b/descargas/informe.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L1"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +445,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numero_envío</t>
+          <t>Seguimiento</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,43 +455,972 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Telefono</t>
+          <t>Direccion</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Direccion</t>
+          <t>Localidad</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Localidad</t>
+          <t>Estado</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Referencia</t>
+          <t>Motivo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Vendedor</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>estado_envio</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>sku</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Cobrar</t>
-        </is>
+          <t>Monto</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NOML13300049579</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosana Reyna </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Floreció Varela 3390</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guernica </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>En Camino</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NOML13300049580</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">José Martín </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Enrique Larreta 4630</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ituizango </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No Entregado</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nadie en Domicilio (Reprogramado)</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NOML13300049581</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Silvia </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Callao 1990</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Villa Madero, La matanza </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No Entregado</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nadie en Domicilio (Reprogramado)</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NOML13300049582</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jhon Espejo </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cardenas 1434</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aldo Bonzi </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No Entregado</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nadie en Domicilio (Reprogramado)</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NOML13300049583</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabel </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Piedra buena 3500</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lugano </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>En Camino</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NOML13300049585</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ariel </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C, Tita Merelo </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ingeniero budge</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Entregado</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Entregado sin novedades</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NOML13300049587</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maximiliano Araujo </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Coronel Conde 2818</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonzalez catan </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Entregado</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Entregado sin novedades</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NOML13300049588</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carmen </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>los pensamientos 1623</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ezeiza Tristan Suarez </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>En Camino</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NOML13300049590</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jhymi </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nahuel Huapi 5000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">villa Urquiza </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>En Camino</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NOML13300049591</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roberto Carlos Mamani </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Omero 385</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Villa Luro</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>En Camino</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NOML13300049592</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcelo Severo </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magrassi </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BUDGE</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Entregado</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Entregado sin novedades</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NOML13300049593</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yolanda </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Iparraguirre 4430</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lomas de Zamora </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Entregado</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Entregado sin novedades</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NOML13300049594</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ricardo </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Gral Rodríguez 3261</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monte Grande </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>En Camino</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NOML13300049595</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carmen Vigueras </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sudamérica 126</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Spegazzini </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>En Camino</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NOML13300049597</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cristian </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Avenida Piedra Buena 4205</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Villa Lugano </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>En Camino</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NOML13300049599</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Freddy Fernadez </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Gral San Martín 3966</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">San Justo </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Entregado</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Entregado sin novedades</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NOML13300049600</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raquel Cabral </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Crovara 1580</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Tablada </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Entregado</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Entregado sin novedades</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NOML13300049602</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soledad Mamaní </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mariano Alegre 3315</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monte Grande </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No Entregado</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Nadie en Domicilio (Reprogramado)</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NOML13300049603</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alejandro </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Voissin 5585</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">González Catán </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No Entregado</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Nadie en Domicilio (Reprogramado)</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NOML13300049604</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claudia </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">punto de encuentro Ramallo y Zoreta </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarandí, Avellaneda </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No Entregado</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Nadie en Domicilio (Reprogramado)</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NOML13300049605</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simón </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Los Manzanos 433</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ezeiza Tristan Suarez </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>En Camino</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NOML13300049606</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nemia Adrian </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ricardo Palma </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lomas de Zamora </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>No Entregado</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Nadie en Domicilio (Reprogramado)</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NOML13300049607</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viviana </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>La pampa 660</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">San José Adrogué </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No Entregado</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Nadie en Domicilio (Reprogramado)</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NOML13300049608</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eduardo </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Almirante Brown 1160</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guernica </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>En Camino</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>6900</v>
       </c>
     </row>
   </sheetData>

--- a/descargas/informe.xlsx
+++ b/descargas/informe.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="B1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,84 +436,48 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Chofer</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Seguimiento</t>
+          <t>En_camino_hoy</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>comprador</t>
+          <t>Entregados</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Direccion</t>
+          <t>Nadie_en_domicilio</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Localidad</t>
+          <t>No_visitado</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Estado</t>
+          <t>Diferencia_cargados_Entregados</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Motivo</t>
+          <t>Horario_salida</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Monto</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>44932</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NOML13315050838</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CLIENTE DE AVELLANEDA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Comodoro Rivadavia 2385</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Avellaneda</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Entregado</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Entregado sin novedades</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>8000</v>
+          <t>Horario_fin</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>efectividad</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/descargas/informe.xlsx
+++ b/descargas/informe.xlsx
@@ -55,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:J1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +481,1074 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sin Chofer</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Brian Gauto</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.7927083333333333</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0.8992708333333334</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>94.4444%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Camila Mayra Lopez</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.6834027777777778</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0.9181134259259259</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carlos Vazquez</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.6663657407407407</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0.6663657407407407</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Corbalan Ramon</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.7742245370370371</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0.7742245370370371</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cristian Flores</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.6731712962962964</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0.8378125</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>95.6522%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Damian Matias Lopez</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0.6764583333333334</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0.9066550925925926</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>96.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Elvio Ricardo Benitez</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0.7993171296296296</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0.9217592592592593</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>100.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Emiliano Accialini</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0.6766898148148148</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0.8329050925925926</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>93.3333%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Florencia Santangelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0.7068402777777778</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0.8391319444444445</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>92.8571%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gastón Cabaña</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0.6804861111111111</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0.9223263888888888</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>88.2353%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gaston Cufre</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0.6752430555555555</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0.6752430555555555</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gerardo Rosaschi</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>41</v>
+      </c>
+      <c r="D14" t="n">
+        <v>29</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0.6900578703703704</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0.9260879629629629</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>70.7317%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gonzalo Ruben Retamoso</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>17</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0.7632175925925926</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0.8471875</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>100.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Javier Montenegro</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>31</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0.6790972222222222</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0.8308912037037037</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>64.5161%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Juan Carrillo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Leandro Dangelo</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>0.6759606481481482</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0.8812962962962962</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>100.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mariano Buscaglia</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0.5355787037037038</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0.7696296296296297</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>200.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Matias Acciaio</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>14</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>0.7190856481481481</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>0.8111226851851852</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>114.2857%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Natalia Mildenberger</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>45</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>43</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>0.7099768518518519</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0.923125</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nicolas Marchioli</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>18</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>0.6742476851851852</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0.8997569444444444</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>90.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pablo Fabian Gozio</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>0.6728356481481481</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0.7598148148148148</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>88.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Paola Gonzalez</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>26</v>
+      </c>
+      <c r="D24" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>0.7402546296296296</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0.9176273148148149</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>92.3077%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Ramiro Daniel Coletti</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>0.3925462962962963</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0.5921064814814815</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>63.6364%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ricardo Fundora Olivares</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>31</v>
+      </c>
+      <c r="D26" t="n">
+        <v>28</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>0.6883449074074074</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>0.8726041666666666</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>90.3226%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Santiago Schefer</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>40</v>
+      </c>
+      <c r="D27" t="n">
+        <v>23</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>17</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>0.7093287037037037</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>0.8610763888888889</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>57.5000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sebastian Arrieta</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>0.5641435185185185</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0.6995949074074074</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>37.5000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sergio Hoyuelos</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>29</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>0.6782175925925926</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0.871550925925926</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>93.1034%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Victor Gonzalez</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>14</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>0.3824189814814815</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0.6477430555555556</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>64.2857%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Walter Antonio Gerpe</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>0.6816898148148148</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0.8095833333333333</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>50.0000%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/descargas/informe.xlsx
+++ b/descargas/informe.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,35 +447,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Reasignados_hoy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Entregados</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nadie_en_domicilio</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>No_visitado</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Diferencia_cargados_Entregados</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Horario_salida</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Horario_fin</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>efectividad</t>
         </is>
@@ -491,23 +496,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
         <v>14</v>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>0.0000%</t>
         </is>
@@ -523,27 +531,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
         <v>17</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>0.7927083333333333</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="J3" s="2" t="n">
         <v>0.8992708333333334</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>94.4444%</t>
         </is>
@@ -559,27 +570,30 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
-        <v>18</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
         <v>0.6834027777777778</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="J4" s="2" t="n">
         <v>0.9181134259259259</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>100.0000%</t>
         </is>
@@ -607,15 +621,18 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0.6663657407407407</v>
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>0.6663657407407407</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="2" t="n">
+        <v>0.6663657407407407</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>0.0000%</t>
         </is>
@@ -627,35 +644,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Corbalan Ramon</t>
+          <t>Claudio Lopez</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0.7742245370370371</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.7742245370370371</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.0000%</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" s="2" t="n">
+        <v>0.9997800925925926</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -663,14 +677,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cristian Flores</t>
+          <t>Corbalan Ramon</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -679,17 +693,20 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.6731712962962964</v>
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.8378125</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>95.6522%</t>
+        <v>0.7742245370370371</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.7742245370370371</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.0000%</t>
         </is>
       </c>
     </row>
@@ -699,33 +716,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Damian Matias Lopez</t>
+          <t>Cristian Flores</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0.6764583333333334</v>
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.9066550925925926</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>96.0000%</t>
+        <v>0.6731712962962964</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0.8378125</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>95.6522%</t>
         </is>
       </c>
     </row>
@@ -735,33 +755,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elvio Ricardo Benitez</t>
+          <t>Damian Matias Lopez</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0.7993171296296296</v>
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.9217592592592593</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>100.0000%</t>
+        <v>0.6764583333333334</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0.9066550925925926</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>96.0000%</t>
         </is>
       </c>
     </row>
@@ -771,33 +794,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emiliano Accialini</t>
+          <t>Elvio Ricardo Benitez</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0.6766898148148148</v>
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.8329050925925926</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>93.3333%</t>
+        <v>0.7993171296296296</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0.9217592592592593</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -807,33 +833,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Florencia Santangelo</t>
+          <t>Emiliano Accialini</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0.7068402777777778</v>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.8391319444444445</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>92.8571%</t>
+        <v>0.6766898148148148</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0.8329050925925926</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>93.3333%</t>
         </is>
       </c>
     </row>
@@ -843,33 +872,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gastón Cabaña</t>
+          <t>Florencia Santangelo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>0.6804861111111111</v>
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.9223263888888888</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>88.2353%</t>
+        <v>0.7068402777777778</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0.8391319444444445</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>92.8571%</t>
         </is>
       </c>
     </row>
@@ -879,33 +911,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gaston Cufre</t>
+          <t>Gastón Cabaña</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>0.6752430555555555</v>
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.6752430555555555</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.0000%</t>
+        <v>0.6804861111111111</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0.9223263888888888</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>88.2353%</t>
         </is>
       </c>
     </row>
@@ -915,33 +950,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gerardo Rosaschi</t>
+          <t>Gaston Cufre</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>0.6900578703703704</v>
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.9260879629629629</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>70.7317%</t>
+        <v>0.6752430555555555</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0.6752430555555555</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.0000%</t>
         </is>
       </c>
     </row>
@@ -951,33 +989,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gonzalo Ruben Retamoso</t>
+          <t>Gerardo Rosaschi</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>0.7632175925925926</v>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.8471875</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>100.0000%</t>
+        <v>0.6900578703703704</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0.9803356481481481</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>73.1707%</t>
         </is>
       </c>
     </row>
@@ -987,33 +1028,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Javier Montenegro</t>
+          <t>Gonzalo Ruben Retamoso</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>0.6790972222222222</v>
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.8308912037037037</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>64.5161%</t>
+        <v>0.7632175925925926</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0.8471875</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -1023,27 +1067,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Juan Carrillo</t>
+          <t>Javier Montenegro</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0.6790972222222222</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0.8308912037037037</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>64.5161%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1051,35 +1106,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Leandro Dangelo</t>
+          <t>Juan Carrillo</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0.6759606481481482</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0.8812962962962962</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>100.0000%</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1087,33 +1137,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mariano Buscaglia</t>
+          <t>Leandro Dangelo</t>
         </is>
       </c>
       <c r="C19" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0.5355787037037038</v>
-      </c>
       <c r="I19" s="2" t="n">
-        <v>0.7696296296296297</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>200.0000%</t>
+        <v>0.6759606481481482</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0.8812962962962962</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -1123,33 +1176,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Matias Acciaio</t>
+          <t>Mariano Buscaglia</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>0.7190856481481481</v>
-      </c>
       <c r="I20" s="2" t="n">
-        <v>0.8111226851851852</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>114.2857%</t>
+        <v>0.5355787037037038</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0.7696296296296297</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>200.0000%</t>
         </is>
       </c>
     </row>
@@ -1159,33 +1215,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Natalia Mildenberger</t>
+          <t>Matias Acciaio</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>43</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>0.7099768518518519</v>
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.923125</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.0000%</t>
+        <v>0.9990740740740741</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0.9990740740740741</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>8.3333%</t>
         </is>
       </c>
     </row>
@@ -1195,33 +1254,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nicolas Marchioli</t>
+          <t>Natalia Mildenberger</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D22" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>0.6742476851851852</v>
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.8997569444444444</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>90.0000%</t>
+        <v>0.7099768518518519</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0.9752546296296296</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>82.2222%</t>
         </is>
       </c>
     </row>
@@ -1231,33 +1293,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pablo Fabian Gozio</t>
+          <t>Nicolas Marchioli</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>0.6728356481481481</v>
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.7598148148148148</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>88.0000%</t>
+        <v>0.6742476851851852</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0.8997569444444444</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>90.0000%</t>
         </is>
       </c>
     </row>
@@ -1267,33 +1332,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Paola Gonzalez</t>
+          <t>Pablo Fabian Gozio</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>0.7402546296296296</v>
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.9176273148148149</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>92.3077%</t>
+        <v>0.6728356481481481</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>0.7598148148148148</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>88.0000%</t>
         </is>
       </c>
     </row>
@@ -1303,33 +1371,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ramiro Daniel Coletti</t>
+          <t>Paola Gonzalez</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>0.3925462962962963</v>
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.5921064814814815</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>63.6364%</t>
+        <v>0.7402546296296296</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>0.9176273148148149</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>92.3077%</t>
         </is>
       </c>
     </row>
@@ -1339,33 +1410,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ricardo Fundora Olivares</t>
+          <t>Ramiro Daniel Coletti</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>0.6883449074074074</v>
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.8726041666666666</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>90.3226%</t>
+        <v>0.3925462962962963</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>0.5921064814814815</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>63.6364%</t>
         </is>
       </c>
     </row>
@@ -1375,33 +1449,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Santiago Schefer</t>
+          <t>Ricardo Fundora Olivares</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>17</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>0.7093287037037037</v>
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.8610763888888889</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>57.5000%</t>
+        <v>0.6883449074074074</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0.8726041666666666</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>90.3226%</t>
         </is>
       </c>
     </row>
@@ -1411,33 +1488,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sebastian Arrieta</t>
+          <t>Santiago Schefer</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>0.5641435185185185</v>
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>17</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.6995949074074074</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>37.5000%</t>
+        <v>0.7093287037037037</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0.8610763888888889</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>57.5000%</t>
         </is>
       </c>
     </row>
@@ -1447,33 +1527,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sergio Hoyuelos</t>
+          <t>Sebastian Arrieta</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>0.6782175925925926</v>
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.871550925925926</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>93.1034%</t>
+        <v>0.5641435185185185</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0.6995949074074074</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>37.5000%</t>
         </is>
       </c>
     </row>
@@ -1483,33 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Victor Gonzalez</t>
+          <t>Sergio Hoyuelos</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>0.3824189814814815</v>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.6477430555555556</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>64.2857%</t>
+        <v>0.6782175925925926</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0.871550925925926</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>93.1034%</t>
         </is>
       </c>
     </row>
@@ -1519,33 +1605,75 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Victor Gonzalez</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>14</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0.3824189814814815</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>0.6477430555555556</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>64.2857%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Walter Antonio Gerpe</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>30</v>
       </c>
-      <c r="D31" t="n">
-        <v>15</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>15</v>
-      </c>
-      <c r="H31" s="2" t="n">
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>28</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2" t="n">
         <v>0.6816898148148148</v>
       </c>
-      <c r="I31" s="2" t="n">
-        <v>0.8095833333333333</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>50.0000%</t>
+      <c r="J32" s="2" t="n">
+        <v>0.951875</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>93.3333%</t>
         </is>
       </c>
     </row>

--- a/descargas/informe.xlsx
+++ b/descargas/informe.xlsx
@@ -55,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -496,10 +495,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -508,13 +507,21 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>0.0000%</t>
@@ -527,17 +534,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brian Gauto</t>
+          <t>Antonino Marchese</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -546,17 +553,21 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.7927083333333333</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0.8992708333333334</v>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>14:44:43</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>14:46:47</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>94.4444%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -566,17 +577,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camila Mayra Lopez</t>
+          <t>Brian Gauto</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -585,17 +596,21 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.6834027777777778</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0.9181134259259259</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>15:52:31</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>20:17:45</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>90.0000%</t>
         </is>
       </c>
     </row>
@@ -609,13 +624,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -624,17 +639,21 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.6663657407407407</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0.6663657407407407</v>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>21:42:17</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>21:42:17</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.0000%</t>
+          <t>85.7143%</t>
         </is>
       </c>
     </row>
@@ -644,32 +663,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Claudio Lopez</t>
+          <t>Corbalan Ramon</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" s="2" t="n">
-        <v>0.9997800925925926</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>16:16:18</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>19:51:06</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>93.3333%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -677,17 +706,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Corbalan Ramon</t>
+          <t>Cristian Flores</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -696,17 +725,21 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.7742245370370371</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.7742245370370371</v>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>15:40:58</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>19:34:50</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.0000%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -716,17 +749,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cristian Flores</t>
+          <t>Damian Matias Lopez</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -737,15 +770,19 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="n">
-        <v>0.6731712962962964</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0.8378125</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>15:40:37</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>18:02:23</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>95.6522%</t>
+          <t>112.5000%</t>
         </is>
       </c>
     </row>
@@ -755,36 +792,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Damian Matias Lopez</t>
+          <t>Elvio Ricardo Benitez</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0.6764583333333334</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0.9066550925925926</v>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>16:01:01</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>21:37:48</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>96.0000%</t>
+          <t>106.2500%</t>
         </is>
       </c>
     </row>
@@ -794,20 +835,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Elvio Ricardo Benitez</t>
+          <t>Emiliano Accialini</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -815,15 +856,19 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>0.7993171296296296</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0.9217592592592593</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>15:44:58</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>18:36:00</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>107.6923%</t>
         </is>
       </c>
     </row>
@@ -833,36 +878,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Emiliano Accialini</t>
+          <t>Federico Ortega</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.6766898148148148</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0.8329050925925926</v>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>15:43:31</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>19:41:03</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>93.3333%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -876,32 +925,36 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.7068402777777778</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0.8391319444444445</v>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>15:41:56</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>17:36:07</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>92.8571%</t>
+          <t>110.0000%</t>
         </is>
       </c>
     </row>
@@ -911,17 +964,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gastón Cabaña</t>
+          <t>Gabriela Tambasco</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -930,17 +983,21 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.6804861111111111</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0.9223263888888888</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>15:42:17</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>19:00:35</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>88.2353%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -950,18 +1007,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gaston Cufre</t>
+          <t>Gastón Cabaña</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>10</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -969,17 +1026,21 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.6752430555555555</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0.6752430555555555</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>15:41:45</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>19:43:51</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.0000%</t>
+          <t>90.9091%</t>
         </is>
       </c>
     </row>
@@ -993,32 +1054,36 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.6900578703703704</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0.9803356481481481</v>
+        <v>6</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>15:44:33</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>19:14:18</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>73.1707%</t>
+          <t>65.2174%</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1097,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1049,15 +1114,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="2" t="n">
-        <v>0.7632175925925926</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>0.8471875</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>15:50:39</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>18:55:18</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>95.2381%</t>
         </is>
       </c>
     </row>
@@ -1071,32 +1140,36 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.6790972222222222</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0.8308912037037037</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>15:07:26</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>16:33:23</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>64.5161%</t>
+          <t>89.4737%</t>
         </is>
       </c>
     </row>
@@ -1106,17 +1179,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Juan Carrillo</t>
+          <t>Juan Alberto Gramajo</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1125,11 +1198,23 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>15:39:56</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>18:06:04</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>111.1111%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1141,10 +1226,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
@@ -1158,11 +1243,15 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" s="2" t="n">
-        <v>0.6759606481481482</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0.8812962962962962</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>15:44:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>21:25:48</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1180,13 +1269,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1195,17 +1284,21 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0.5355787037037038</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0.7696296296296297</v>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>12:19:58</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>12:19:58</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>200.0000%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -1219,10 +1312,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1234,17 +1327,21 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0.9990740740740741</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0.9990740740740741</v>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>14:23:38</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>19:58:45</t>
+        </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8.3333%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -1258,32 +1355,36 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.7099768518518519</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>0.9752546296296296</v>
+        <v>7</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>15:43:19</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20:34:02</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>82.2222%</t>
+          <t>135.2941%</t>
         </is>
       </c>
     </row>
@@ -1297,32 +1398,36 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.6742476851851852</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>0.8997569444444444</v>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>15:45:31</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>19:36:44</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>90.0000%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -1336,32 +1441,36 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>16</v>
+      </c>
+      <c r="F24" t="n">
         <v>3</v>
       </c>
-      <c r="E24" t="n">
-        <v>22</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.6728356481481481</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>0.7598148148148148</v>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>15:06:12</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>15:55:48</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>88.0000%</t>
+          <t>94.1176%</t>
         </is>
       </c>
     </row>
@@ -1375,32 +1484,36 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.7402546296296296</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0.9176273148148149</v>
+        <v>9</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>15:49:30</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>19:57:54</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>92.3077%</t>
+          <t>108.3333%</t>
         </is>
       </c>
     </row>
@@ -1414,16 +1527,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1431,15 +1544,19 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="2" t="n">
-        <v>0.3925462962962963</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0.5921064814814815</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>09:26:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>16:28:08</t>
+        </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>63.6364%</t>
+          <t>80.0000%</t>
         </is>
       </c>
     </row>
@@ -1453,32 +1570,36 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0.6883449074074074</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0.8726041666666666</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>15:41:50</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>18:22:02</t>
+        </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>90.3226%</t>
+          <t>78.9474%</t>
         </is>
       </c>
     </row>
@@ -1488,17 +1609,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Santiago Schefer</t>
+          <t>Rodrigo Freire</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1507,17 +1628,21 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>17</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0.7093287037037037</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0.8610763888888889</v>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>12:22:16</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>13:24:33</t>
+        </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>57.5000%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -1527,36 +1652,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sebastian Arrieta</t>
+          <t>Santiago Schefer</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.5641435185185185</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0.6995949074074074</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>19:52:24</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>19:53:28</t>
+        </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>37.5000%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +1699,36 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.6782175925925926</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0.871550925925926</v>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>15:39:38</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>21:23:01</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>93.1034%</t>
+          <t>120.0000%</t>
         </is>
       </c>
     </row>
@@ -1609,32 +1742,36 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0.3824189814814815</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0.6477430555555556</v>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>09:20:53</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>17:09:02</t>
+        </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>64.2857%</t>
+          <t>90.9091%</t>
         </is>
       </c>
     </row>
@@ -1648,32 +1785,36 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>2</v>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.6816898148148148</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>0.951875</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>17:37:27</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>19:28:13</t>
+        </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>93.3333%</t>
+          <t>122.2222%</t>
         </is>
       </c>
     </row>
